--- a/Team-Data/2014-15/1-12-2014-15.xlsx
+++ b/Team-Data/2014-15/1-12-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -771,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="AM2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN2" t="n">
         <v>3</v>
@@ -789,7 +856,7 @@
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -804,10 +871,10 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.361</v>
+        <v>0.343</v>
       </c>
       <c r="H3" t="n">
         <v>48.7</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="J3" t="n">
         <v>88.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L3" t="n">
         <v>7.4</v>
@@ -881,19 +948,19 @@
         <v>0.322</v>
       </c>
       <c r="O3" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="P3" t="n">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.755</v>
+        <v>0.751</v>
       </c>
       <c r="R3" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T3" t="n">
         <v>43.4</v>
@@ -902,7 +969,7 @@
         <v>25.3</v>
       </c>
       <c r="V3" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W3" t="n">
         <v>8.300000000000001</v>
@@ -917,19 +984,19 @@
         <v>21.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="AD3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE3" t="n">
         <v>26</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>25</v>
       </c>
       <c r="AF3" t="n">
         <v>21</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
         <v>14</v>
@@ -956,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -965,22 +1032,22 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT3" t="n">
         <v>12</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
         <v>9</v>
@@ -989,10 +1056,10 @@
         <v>25</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
@@ -1001,7 +1068,7 @@
         <v>8</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -1030,22 +1097,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>0.421</v>
+        <v>0.432</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J4" t="n">
         <v>81.2</v>
@@ -1060,28 +1127,28 @@
         <v>21.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.321</v>
+        <v>0.323</v>
       </c>
       <c r="O4" t="n">
         <v>16.5</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="R4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S4" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T4" t="n">
         <v>42.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
@@ -1093,7 +1160,7 @@
         <v>4.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z4" t="n">
         <v>20.1</v>
@@ -1102,28 +1169,28 @@
         <v>20.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
         <v>24</v>
@@ -1138,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO4" t="n">
         <v>22</v>
@@ -1147,22 +1214,22 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU4" t="n">
         <v>19</v>
       </c>
-      <c r="AU4" t="n">
-        <v>20</v>
-      </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
         <v>21</v>
@@ -1174,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA4" t="n">
         <v>21</v>
@@ -1183,7 +1250,7 @@
         <v>25</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1375,7 @@
         <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1341,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1356,7 +1423,7 @@
         <v>17</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -1394,67 +1461,67 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="n">
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.667</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M6" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P6" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S6" t="n">
         <v>33.8</v>
       </c>
       <c r="T6" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U6" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V6" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W6" t="n">
         <v>6.1</v>
       </c>
       <c r="X6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y6" t="n">
         <v>5.4</v>
@@ -1466,31 +1533,31 @@
         <v>22.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.1</v>
+        <v>101.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>4</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>20</v>
@@ -1502,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1544,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-0.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>14</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
@@ -1678,25 +1745,25 @@
         <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS7" t="n">
         <v>27</v>
@@ -1729,7 +1796,7 @@
         <v>17</v>
       </c>
       <c r="BC7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -1758,34 +1825,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.703</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="J8" t="n">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.475</v>
       </c>
       <c r="L8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="N8" t="n">
         <v>0.361</v>
@@ -1794,28 +1861,28 @@
         <v>17.2</v>
       </c>
       <c r="P8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>12.2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>5</v>
@@ -1830,31 +1897,31 @@
         <v>22.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.1</v>
+        <v>108.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
@@ -1863,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN8" t="n">
         <v>11</v>
@@ -1872,46 +1939,46 @@
         <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
         <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-1.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
@@ -2033,13 +2100,13 @@
         <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>12</v>
@@ -2069,10 +2136,10 @@
         <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2090,10 +2157,10 @@
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
         <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>0.368</v>
+        <v>0.351</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J10" t="n">
-        <v>86.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.426</v>
@@ -2149,58 +2216,58 @@
         <v>8.6</v>
       </c>
       <c r="M10" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N10" t="n">
         <v>0.345</v>
       </c>
       <c r="O10" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="P10" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T10" t="n">
         <v>45.7</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V10" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W10" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA10" t="n">
         <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,10 +2279,10 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
         <v>7</v>
@@ -2227,13 +2294,13 @@
         <v>9</v>
       </c>
       <c r="AM10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -2260,10 +2327,10 @@
         <v>14</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
         <v>10</v>
@@ -2275,7 +2342,7 @@
         <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -2501,40 +2568,40 @@
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="J12" t="n">
-        <v>83.40000000000001</v>
+        <v>83</v>
       </c>
       <c r="K12" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L12" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="N12" t="n">
         <v>0.349</v>
       </c>
       <c r="O12" t="n">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.708</v>
+        <v>0.706</v>
       </c>
       <c r="R12" t="n">
         <v>12.4</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="U12" t="n">
         <v>20.7</v>
@@ -2546,25 +2613,25 @@
         <v>9.699999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,16 +2643,16 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2597,10 +2664,10 @@
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2609,10 +2676,10 @@
         <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
         <v>23</v>
@@ -2624,19 +2691,19 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -2764,13 +2831,13 @@
         <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>19</v>
@@ -2785,7 +2852,7 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR13" t="n">
         <v>12</v>
@@ -2809,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
         <v>17</v>
@@ -2821,7 +2888,7 @@
         <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2943,7 +3010,7 @@
         <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>21</v>
@@ -2955,7 +3022,7 @@
         <v>2</v>
       </c>
       <c r="AM14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN14" t="n">
         <v>2</v>
@@ -2967,22 +3034,22 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS14" t="n">
         <v>15</v>
       </c>
       <c r="AT14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW14" t="n">
         <v>13</v>
@@ -3003,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>0.324</v>
+        <v>0.316</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="J15" t="n">
-        <v>86.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M15" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O15" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.5</v>
@@ -3095,94 +3162,94 @@
         <v>4.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.7</v>
+        <v>101.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.8</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR15" t="n">
         <v>9</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AS15" t="n">
         <v>20</v>
       </c>
-      <c r="AR15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>19</v>
-      </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV15" t="n">
         <v>4</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>7</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3355,16 +3422,16 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC16" t="n">
         <v>9</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-4</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
         <v>15</v>
@@ -3510,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>26</v>
@@ -3543,10 +3610,10 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
         <v>25</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3729,7 @@
         <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-10.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3859,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3907,7 +3974,7 @@
         <v>15</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -3945,100 +4012,100 @@
         <v>36</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.472</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="J20" t="n">
-        <v>84.09999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="O20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
         <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>101.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -4050,25 +4117,25 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>14</v>
       </c>
-      <c r="AP20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ20" t="n">
+      <c r="AR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT20" t="n">
         <v>11</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
@@ -4080,13 +4147,13 @@
         <v>17</v>
       </c>
       <c r="AX20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>27</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA20" t="n">
         <v>26</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4311,7 @@
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4253,7 +4320,7 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -4384,16 +4451,16 @@
         <v>0.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
         <v>14</v>
@@ -4402,10 +4469,10 @@
         <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
         <v>17</v>
@@ -4444,16 +4511,16 @@
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>14</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -4491,79 +4558,79 @@
         <v>40</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>0.35</v>
+        <v>0.325</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.45</v>
       </c>
       <c r="L23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N23" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O23" t="n">
         <v>13.7</v>
       </c>
       <c r="P23" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.723</v>
+        <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="U23" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
         <v>21.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.2</v>
+        <v>-5.8</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4575,19 +4642,19 @@
         <v>27</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4608,28 +4675,28 @@
         <v>27</v>
       </c>
       <c r="AR23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>19</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-12.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>10</v>
@@ -4784,22 +4851,22 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT24" t="n">
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,10 +4875,10 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>15</v>
@@ -4972,10 +5039,10 @@
         <v>1</v>
       </c>
       <c r="AR25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS25" t="n">
         <v>18</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>17</v>
       </c>
       <c r="AT25" t="n">
         <v>16</v>
@@ -4990,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5124,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>6</v>
@@ -5133,7 +5200,7 @@
         <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>18</v>
@@ -5309,7 +5376,7 @@
         <v>6</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.595</v>
+        <v>0.605</v>
       </c>
       <c r="H28" t="n">
         <v>49.2</v>
@@ -5416,43 +5483,43 @@
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.467</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.371</v>
+        <v>0.375</v>
       </c>
       <c r="O28" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
@@ -5461,10 +5528,10 @@
         <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA28" t="n">
         <v>20.5</v>
@@ -5476,7 +5543,7 @@
         <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5488,19 +5555,19 @@
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
@@ -5515,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,13 +5591,13 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW28" t="n">
         <v>16</v>
@@ -5545,10 +5612,10 @@
         <v>8</v>
       </c>
       <c r="BA28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -5580,94 +5647,94 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" t="n">
         <v>25</v>
       </c>
       <c r="F29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>0.676</v>
+        <v>0.694</v>
       </c>
       <c r="H29" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="J29" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L29" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M29" t="n">
         <v>25.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O29" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="P29" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R29" t="n">
         <v>11.3</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T29" t="n">
         <v>41.8</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V29" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W29" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y29" t="n">
         <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH29" t="n">
         <v>10</v>
@@ -5679,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,7 +5755,7 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5709,25 +5776,25 @@
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY29" t="n">
         <v>20</v>
       </c>
-      <c r="AX29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-3.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
         <v>25</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5879,19 +5946,19 @@
         <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
         <v>23</v>
@@ -5900,7 +5967,7 @@
         <v>25</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>8</v>
@@ -6031,7 +6098,7 @@
         <v>7</v>
       </c>
       <c r="AG31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH31" t="n">
         <v>14</v>
@@ -6055,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
@@ -6076,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-12-2014-15</t>
+          <t>2015-01-12</t>
         </is>
       </c>
     </row>
